--- a/inst/extdata/scenarios/swmm_lid-parameterisation_v1.0.0.xlsx
+++ b/inst/extdata/scenarios/swmm_lid-parameterisation_v1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kwb\projects\keys\Communication\Presentations\2021-03-30_WP1-meeting_modelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrustl\Documents\RProjects\keys.lid\inst\extdata\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E9027-BD2D-4045-B72C-51BD3381F2D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D480B-3D4E-4CE5-906B-861178DA3524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16860" activeTab="4" xr2:uid="{2C0CC149-430D-45D4-BA68-435A859DB6BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16860" activeTab="3" xr2:uid="{2C0CC149-430D-45D4-BA68-435A859DB6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="bioretention_cell" sheetId="3" r:id="rId1"/>
@@ -29,13 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="109">
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="106">
   <si>
     <t>berm.height_mm</t>
   </si>
@@ -349,13 +343,7 @@
 =&gt; nach 1,5 Tagen: 75% Versickerungsleistung</t>
   </si>
   <si>
-    <t>recommendation_kim</t>
-  </si>
-  <si>
     <t>barrel.height_mm</t>
-  </si>
-  <si>
-    <t>recommendation</t>
   </si>
   <si>
     <t>180 mm/hr (= 500 l/(s*ha)) =&gt; unkolmatierter Zustand: &gt;&gt; 1.000 l/(s*ha) -</t>
@@ -590,6 +578,9 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>scenario_name</t>
   </si>
 </sst>
 </file>
@@ -793,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,6 +891,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,55 +1232,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="53" t="s">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
-        <v>69</v>
+      <c r="A2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>2</v>
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>300</v>
@@ -1300,48 +1291,48 @@
       <c r="E3">
         <v>300</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="39">
         <v>300</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>63</v>
+      <c r="G3" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="A4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
         <v>0.05</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>0.05</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>0.05</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>0.05</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>64</v>
+      <c r="G4" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>14</v>
+      <c r="A5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -1356,18 +1347,18 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>18</v>
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1382,18 +1373,18 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>4</v>
+      <c r="A7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>500</v>
@@ -1408,58 +1399,58 @@
         <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>5</v>
+      <c r="A8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0.437</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>66</v>
+      <c r="G8" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="A9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="39">
         <v>0.105</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>0.105</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>0.105</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>71</v>
+      <c r="G9" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>7</v>
+      <c r="A10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
         <v>4.7E-2</v>
@@ -1471,18 +1462,18 @@
         <v>4.7E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>8</v>
+      <c r="A11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1497,15 +1488,15 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>9</v>
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -1519,19 +1510,19 @@
       <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>81</v>
+      <c r="G12" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>10</v>
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="C13">
         <v>4.7E-2</v>
@@ -1539,19 +1530,19 @@
       <c r="F13">
         <v>4.7E-2</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>82</v>
+      <c r="G13" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>4</v>
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1566,18 +1557,18 @@
         <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>23</v>
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1589,18 +1580,18 @@
         <v>0.6</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>32</v>
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1615,41 +1606,41 @@
         <v>7.43</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1658,15 +1649,15 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>34</v>
+      <c r="A19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -1676,11 +1667,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>35</v>
+      <c r="A20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -1690,39 +1681,39 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1735,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D521626-6D22-40E6-8B80-D0FD83C4D8B0}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="J1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,48 +1741,48 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>79</v>
+      <c r="K1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="15">
         <v>0</v>
@@ -1818,15 +1809,15 @@
         <v>100</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8">
         <v>0.15</v>
@@ -1856,15 +1847,15 @@
         <v>0.15</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>0.1</v>
@@ -1891,18 +1882,18 @@
         <v>0.1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -1932,15 +1923,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11">
         <v>80</v>
@@ -1970,15 +1961,15 @@
         <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="15">
         <v>0.65</v>
@@ -2005,18 +1996,18 @@
         <v>0.65</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8">
         <v>0.35</v>
@@ -2046,15 +2037,15 @@
         <v>0.35</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8">
         <v>0.05</v>
@@ -2084,15 +2075,15 @@
         <v>0.05</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>90</v>
@@ -2119,18 +2110,18 @@
         <v>90</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="8">
         <v>30</v>
@@ -2160,15 +2151,15 @@
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="17">
         <v>10</v>
@@ -2198,15 +2189,15 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="13">
         <v>0</v>
@@ -2236,15 +2227,15 @@
         <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C14" s="8">
         <v>0.6</v>
@@ -2271,18 +2262,18 @@
         <v>0.6</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8">
         <v>0.1</v>
@@ -2309,10 +2300,10 @@
         <v>0.1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2326,263 +2317,264 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="B18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="B19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2593,671 +2585,666 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B86D96-106F-4982-9DEA-D74BD4578FBB}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:G29"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.90625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.90625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>80</v>
+      </c>
+      <c r="D6" s="32">
+        <v>80</v>
+      </c>
+      <c r="E6" s="32">
+        <v>80</v>
+      </c>
+      <c r="F6" s="32">
+        <v>80</v>
+      </c>
+      <c r="G6" s="32">
+        <v>80</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45</v>
+      </c>
+      <c r="D9" s="32">
+        <v>90</v>
+      </c>
+      <c r="E9" s="43">
+        <v>180</v>
+      </c>
+      <c r="F9" s="43">
+        <v>180</v>
+      </c>
+      <c r="G9" s="43">
+        <v>360</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0</v>
-      </c>
-      <c r="F2" s="24">
-        <v>0</v>
-      </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="24">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="G5" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
-        <v>80</v>
-      </c>
-      <c r="D6" s="33">
-        <v>80</v>
-      </c>
-      <c r="E6" s="33">
-        <v>80</v>
-      </c>
-      <c r="F6" s="33">
-        <v>80</v>
-      </c>
-      <c r="G6" s="33">
-        <v>80</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>350</v>
+      </c>
+      <c r="D20" s="32">
+        <v>350</v>
+      </c>
+      <c r="E20" s="32">
+        <v>350</v>
+      </c>
+      <c r="F20" s="32">
+        <v>350</v>
+      </c>
+      <c r="G20" s="32">
+        <v>350</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="33">
-        <v>45</v>
-      </c>
-      <c r="D9" s="33">
-        <v>90</v>
-      </c>
-      <c r="E9" s="44">
-        <v>180</v>
-      </c>
-      <c r="F9" s="44">
-        <v>180</v>
-      </c>
-      <c r="G9" s="44">
-        <v>360</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="33">
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0</v>
-      </c>
-      <c r="D12" s="33">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="C23" s="33">
+        <v>0</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="33">
-        <v>350</v>
-      </c>
-      <c r="D20" s="33">
-        <v>350</v>
-      </c>
-      <c r="E20" s="33">
-        <v>350</v>
-      </c>
-      <c r="F20" s="33">
-        <v>350</v>
-      </c>
-      <c r="G20" s="33">
-        <v>350</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="B25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="D22" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="B26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="34">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="34">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="34">
-        <v>1</v>
-      </c>
-      <c r="D24" s="34">
-        <v>1</v>
-      </c>
-      <c r="E24" s="34">
-        <v>1</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="34">
-        <v>1</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="25" t="s">
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="35">
-        <v>0</v>
-      </c>
-      <c r="D26" s="35">
-        <v>0</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="35">
-        <v>0</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="34">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="35">
-        <v>0</v>
-      </c>
-      <c r="D27" s="35">
-        <v>0</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="35">
-        <v>0</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="49" t="s">
-        <v>19</v>
-      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="47" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L47" s="6"/>
@@ -3272,113 +3259,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226361B-E2F4-480B-BE87-D86C9E2C81ED}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
-        <v>67</v>
+      <c r="A2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="25" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
